--- a/public/posts.xlsx
+++ b/public/posts.xlsx
@@ -14,12 +14,15 @@
   <sheets>
     <sheet name="testing_fan_posts" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">testing_fan_posts!$A$1:$W$1</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="450">
   <si>
     <t>ID</t>
   </si>
@@ -106,33 +109,6 @@
   </si>
   <si>
     <t>post</t>
-  </si>
-  <si>
-    <t>Elementor #10057</t>
-  </si>
-  <si>
-    <t>draft</t>
-  </si>
-  <si>
-    <t>https://fanaka.co.ke/?p=10057</t>
-  </si>
-  <si>
-    <t>Invest in this beautiful parcel is located in Ruiru along the recently upgraded Eastern bypass at Kamakis area.
-The project has a gated community set-up and is located next to modern family homes, assuring its owners of the security in the area.
-FEATURES and AMENITIESÂ  IN THE PROJECT:
-&amp;gt; Water is available
-&amp;gt; Well-graded roads
-&amp;gt; 50x80 in size
-&amp;gt; Ready Freehold Title Deed
-WeÂ offerÂ freeÂ dailyÂ siteÂ visitsÂ toÂ theÂ project
-PRICE: The project goes for 850,000ksh only, payable in monthly installments of up to 6 months.
-For additional information, you can call or WhatsApp 0799001133.</t>
-  </si>
-  <si>
-    <t>PRIME COURT - RUIRU KAMAKIS</t>
-  </si>
-  <si>
-    <t>https://fanaka.co.ke/?p=12060</t>
   </si>
   <si>
     <t>Investing in land has many advantages as compared to other forms of investment. This mostly is due to lower risks and high returns associated with this form of investment. In this article, we explore other advantages of investing in land and why it is the most preferred kind of investment:_x000D_
@@ -5777,13 +5753,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W106"/>
+  <dimension ref="A1:W104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="8" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="92.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.3">
@@ -5904,24 +5883,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>10057</v>
+        <v>3549</v>
       </c>
       <c r="B3">
         <v>53</v>
       </c>
       <c r="C3" s="1">
-        <v>44720.630011574074</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
+        <v>43704.397152777776</v>
+      </c>
+      <c r="D3" s="1">
+        <v>43704.272152777776</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I3" t="s">
         <v>26</v>
@@ -5929,17 +5911,20 @@
       <c r="J3" t="s">
         <v>26</v>
       </c>
+      <c r="L3" t="s">
+        <v>32</v>
+      </c>
       <c r="O3" s="1">
-        <v>44720.630011574074</v>
+        <v>43726.398472222223</v>
       </c>
       <c r="P3" s="1">
-        <v>44720.505011574074</v>
+        <v>43726.273472222223</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -5951,45 +5936,48 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>12060</v>
+        <v>2469</v>
       </c>
       <c r="B4">
         <v>53</v>
       </c>
       <c r="C4" s="1">
-        <v>44960.428587962961</v>
-      </c>
-      <c r="D4" t="s">
-        <v>23</v>
+        <v>43288.46533564815</v>
+      </c>
+      <c r="D4" s="1">
+        <v>43288.46533564815</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H4" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="I4" t="s">
         <v>26</v>
       </c>
       <c r="J4" t="s">
-        <v>26</v>
+        <v>37</v>
+      </c>
+      <c r="L4" t="s">
+        <v>38</v>
       </c>
       <c r="O4" s="1">
-        <v>44960.428587962961</v>
+        <v>44708.411423611113</v>
       </c>
       <c r="P4" s="1">
-        <v>44960.303587962961</v>
+        <v>44708.286423611113</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -6001,48 +5989,48 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>3549</v>
+        <v>2472</v>
       </c>
       <c r="B5">
         <v>53</v>
       </c>
       <c r="C5" s="1">
-        <v>43704.397152777776</v>
+        <v>43288.471574074072</v>
       </c>
       <c r="D5" s="1">
-        <v>43704.272152777776</v>
+        <v>43288.471574074072</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" t="s">
         <v>36</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" t="s">
         <v>37</v>
       </c>
-      <c r="I5" t="s">
-        <v>26</v>
-      </c>
-      <c r="J5" t="s">
-        <v>26</v>
-      </c>
       <c r="L5" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="O5" s="1">
-        <v>43726.398472222223</v>
+        <v>43288.474988425929</v>
       </c>
       <c r="P5" s="1">
-        <v>43726.273472222223</v>
+        <v>43288.474988425929</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -6054,48 +6042,48 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>2469</v>
+        <v>2475</v>
       </c>
       <c r="B6">
         <v>53</v>
       </c>
       <c r="C6" s="1">
-        <v>43288.46533564815</v>
+        <v>43288.477488425924</v>
       </c>
       <c r="D6" s="1">
-        <v>43288.46533564815</v>
+        <v>43288.477488425924</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H6" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I6" t="s">
         <v>26</v>
       </c>
       <c r="J6" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="L6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O6" s="1">
-        <v>44708.411423611113</v>
+        <v>44054.552002314813</v>
       </c>
       <c r="P6" s="1">
-        <v>44708.286423611113</v>
+        <v>44054.427002314813</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -6107,48 +6095,48 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>2472</v>
+        <v>2480</v>
       </c>
       <c r="B7">
         <v>53</v>
       </c>
       <c r="C7" s="1">
-        <v>43288.471574074072</v>
+        <v>43288.521724537037</v>
       </c>
       <c r="D7" s="1">
-        <v>43288.471574074072</v>
+        <v>43288.521724537037</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H7" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I7" t="s">
         <v>26</v>
       </c>
       <c r="J7" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="L7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="O7" s="1">
-        <v>43288.474988425929</v>
+        <v>45087.552997685183</v>
       </c>
       <c r="P7" s="1">
-        <v>43288.474988425929</v>
+        <v>45087.427997685183</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -6160,48 +6148,48 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>2475</v>
+        <v>2483</v>
       </c>
       <c r="B8">
         <v>53</v>
       </c>
       <c r="C8" s="1">
-        <v>43288.477488425924</v>
+        <v>43288.528090277781</v>
       </c>
       <c r="D8" s="1">
-        <v>43288.477488425924</v>
+        <v>43288.528090277781</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H8" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I8" t="s">
         <v>26</v>
       </c>
       <c r="J8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="L8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="O8" s="1">
-        <v>44054.552002314813</v>
+        <v>43288.528090277781</v>
       </c>
       <c r="P8" s="1">
-        <v>44054.427002314813</v>
+        <v>43288.528090277781</v>
       </c>
       <c r="R8">
         <v>0</v>
       </c>
       <c r="S8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T8">
         <v>0</v>
@@ -6213,48 +6201,48 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>2480</v>
+        <v>2486</v>
       </c>
       <c r="B9">
         <v>53</v>
       </c>
       <c r="C9" s="1">
-        <v>43288.521724537037</v>
+        <v>43288.532673611109</v>
       </c>
       <c r="D9" s="1">
-        <v>43288.521724537037</v>
+        <v>43288.532673611109</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H9" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I9" t="s">
         <v>26</v>
       </c>
       <c r="J9" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="L9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="O9" s="1">
-        <v>45087.552997685183</v>
+        <v>43288.532673611109</v>
       </c>
       <c r="P9" s="1">
-        <v>45087.427997685183</v>
+        <v>43288.532673611109</v>
       </c>
       <c r="R9">
         <v>0</v>
       </c>
       <c r="S9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="T9">
         <v>0</v>
@@ -6266,48 +6254,48 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>2483</v>
+        <v>2578</v>
       </c>
       <c r="B10">
         <v>53</v>
       </c>
       <c r="C10" s="1">
-        <v>43288.528090277781</v>
+        <v>43306.309305555558</v>
       </c>
       <c r="D10" s="1">
-        <v>43288.528090277781</v>
+        <v>43306.309305555558</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H10" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I10" t="s">
         <v>26</v>
       </c>
       <c r="J10" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="L10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O10" s="1">
-        <v>43288.528090277781</v>
+        <v>43616.300486111111</v>
       </c>
       <c r="P10" s="1">
-        <v>43288.528090277781</v>
+        <v>43616.300486111111</v>
       </c>
       <c r="R10">
         <v>0</v>
       </c>
       <c r="S10" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="T10">
         <v>0</v>
@@ -6319,48 +6307,48 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>2486</v>
+        <v>2685</v>
       </c>
       <c r="B11">
         <v>53</v>
       </c>
       <c r="C11" s="1">
-        <v>43288.532673611109</v>
+        <v>43325.507025462961</v>
       </c>
       <c r="D11" s="1">
-        <v>43288.532673611109</v>
+        <v>43325.507025462961</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H11" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I11" t="s">
         <v>26</v>
       </c>
       <c r="J11" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="L11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="O11" s="1">
-        <v>43288.532673611109</v>
+        <v>44145.522141203706</v>
       </c>
       <c r="P11" s="1">
-        <v>43288.532673611109</v>
+        <v>44145.397141203706</v>
       </c>
       <c r="R11">
         <v>0</v>
       </c>
       <c r="S11" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="T11">
         <v>0</v>
@@ -6372,48 +6360,48 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>2578</v>
+        <v>2690</v>
       </c>
       <c r="B12">
         <v>53</v>
       </c>
       <c r="C12" s="1">
-        <v>43306.309305555558</v>
+        <v>43329.372870370367</v>
       </c>
       <c r="D12" s="1">
-        <v>43306.309305555558</v>
+        <v>43329.372870370367</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F12" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H12" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I12" t="s">
         <v>26</v>
       </c>
       <c r="J12" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="L12" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="O12" s="1">
-        <v>43616.300486111111</v>
+        <v>43329.372870370367</v>
       </c>
       <c r="P12" s="1">
-        <v>43616.300486111111</v>
+        <v>43329.372870370367</v>
       </c>
       <c r="R12">
         <v>0</v>
       </c>
       <c r="S12" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="T12">
         <v>0</v>
@@ -6425,48 +6413,48 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>2685</v>
+        <v>2717</v>
       </c>
       <c r="B13">
         <v>53</v>
       </c>
       <c r="C13" s="1">
-        <v>43325.507025462961</v>
+        <v>43339.366712962961</v>
       </c>
       <c r="D13" s="1">
-        <v>43325.507025462961</v>
+        <v>43339.366712962961</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F13" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H13" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I13" t="s">
         <v>26</v>
       </c>
       <c r="J13" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="L13" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O13" s="1">
-        <v>44145.522141203706</v>
+        <v>43339.366712962961</v>
       </c>
       <c r="P13" s="1">
-        <v>44145.397141203706</v>
+        <v>43339.366712962961</v>
       </c>
       <c r="R13">
         <v>0</v>
       </c>
       <c r="S13" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T13">
         <v>0</v>
@@ -6478,48 +6466,48 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>2690</v>
+        <v>2721</v>
       </c>
       <c r="B14">
         <v>53</v>
       </c>
       <c r="C14" s="1">
-        <v>43329.372870370367</v>
+        <v>43340.328101851854</v>
       </c>
       <c r="D14" s="1">
-        <v>43329.372870370367</v>
+        <v>43340.203101851854</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F14" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H14" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I14" t="s">
         <v>26</v>
       </c>
       <c r="J14" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="L14" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O14" s="1">
-        <v>43329.372870370367</v>
+        <v>44153.672766203701</v>
       </c>
       <c r="P14" s="1">
-        <v>43329.372870370367</v>
+        <v>44153.547766203701</v>
       </c>
       <c r="R14">
         <v>0</v>
       </c>
       <c r="S14" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="T14">
         <v>0</v>
@@ -6531,48 +6519,48 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>2717</v>
+        <v>2752</v>
       </c>
       <c r="B15">
         <v>53</v>
       </c>
       <c r="C15" s="1">
-        <v>43339.366712962961</v>
+        <v>43364.335300925923</v>
       </c>
       <c r="D15" s="1">
-        <v>43339.366712962961</v>
+        <v>43364.335300925923</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F15" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H15" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I15" t="s">
         <v>26</v>
       </c>
       <c r="J15" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="L15" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="O15" s="1">
-        <v>43339.366712962961</v>
+        <v>43364.335300925923</v>
       </c>
       <c r="P15" s="1">
-        <v>43339.366712962961</v>
+        <v>43364.335300925923</v>
       </c>
       <c r="R15">
         <v>0</v>
       </c>
       <c r="S15" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="T15">
         <v>0</v>
@@ -6584,48 +6572,48 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>2721</v>
+        <v>2792</v>
       </c>
       <c r="B16">
         <v>53</v>
       </c>
       <c r="C16" s="1">
-        <v>43340.328101851854</v>
+        <v>43384.330717592595</v>
       </c>
       <c r="D16" s="1">
-        <v>43340.203101851854</v>
+        <v>43384.330717592595</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F16" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H16" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I16" t="s">
         <v>26</v>
       </c>
       <c r="J16" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="L16" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="O16" s="1">
-        <v>44153.672766203701</v>
+        <v>43634.478379629632</v>
       </c>
       <c r="P16" s="1">
-        <v>44153.547766203701</v>
+        <v>43634.353379629632</v>
       </c>
       <c r="R16">
         <v>0</v>
       </c>
       <c r="S16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="T16">
         <v>0</v>
@@ -6637,48 +6625,48 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>2752</v>
+        <v>2814</v>
       </c>
       <c r="B17">
         <v>53</v>
       </c>
       <c r="C17" s="1">
-        <v>43364.335300925923</v>
+        <v>43404.42528935185</v>
       </c>
       <c r="D17" s="1">
-        <v>43364.335300925923</v>
+        <v>43404.42528935185</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H17" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I17" t="s">
         <v>26</v>
       </c>
       <c r="J17" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="L17" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="O17" s="1">
-        <v>43364.335300925923</v>
+        <v>43404.425949074073</v>
       </c>
       <c r="P17" s="1">
-        <v>43364.335300925923</v>
+        <v>43404.425949074073</v>
       </c>
       <c r="R17">
         <v>0</v>
       </c>
       <c r="S17" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="T17">
         <v>0</v>
@@ -6690,48 +6678,48 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>2792</v>
+        <v>2821</v>
       </c>
       <c r="B18">
         <v>53</v>
       </c>
       <c r="C18" s="1">
-        <v>43384.330717592595</v>
+        <v>43412.465428240743</v>
       </c>
       <c r="D18" s="1">
-        <v>43384.330717592595</v>
+        <v>43412.465428240743</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F18" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H18" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I18" t="s">
         <v>26</v>
       </c>
       <c r="J18" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="L18" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="O18" s="1">
-        <v>43634.478379629632</v>
+        <v>44145.520358796297</v>
       </c>
       <c r="P18" s="1">
-        <v>43634.353379629632</v>
+        <v>44145.395358796297</v>
       </c>
       <c r="R18">
         <v>0</v>
       </c>
       <c r="S18" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="T18">
         <v>0</v>
@@ -6743,48 +6731,48 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>2814</v>
+        <v>2945</v>
       </c>
       <c r="B19">
         <v>53</v>
       </c>
       <c r="C19" s="1">
-        <v>43404.42528935185</v>
+        <v>43494.646724537037</v>
       </c>
       <c r="D19" s="1">
-        <v>43404.42528935185</v>
+        <v>43494.646724537037</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F19" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H19" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I19" t="s">
         <v>26</v>
       </c>
       <c r="J19" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="L19" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="O19" s="1">
-        <v>43404.425949074073</v>
+        <v>44145.519687499997</v>
       </c>
       <c r="P19" s="1">
-        <v>43404.425949074073</v>
+        <v>44145.394687499997</v>
       </c>
       <c r="R19">
         <v>0</v>
       </c>
       <c r="S19" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="T19">
         <v>0</v>
@@ -6796,48 +6784,48 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>2821</v>
+        <v>2932</v>
       </c>
       <c r="B20">
         <v>53</v>
       </c>
       <c r="C20" s="1">
-        <v>43412.465428240743</v>
+        <v>43500.258773148147</v>
       </c>
       <c r="D20" s="1">
-        <v>43412.465428240743</v>
+        <v>43500.258773148147</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F20" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H20" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I20" t="s">
         <v>26</v>
       </c>
       <c r="J20" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="L20" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="O20" s="1">
-        <v>44145.520358796297</v>
+        <v>45110.598495370374</v>
       </c>
       <c r="P20" s="1">
-        <v>44145.395358796297</v>
+        <v>45110.473495370374</v>
       </c>
       <c r="R20">
         <v>0</v>
       </c>
       <c r="S20" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="T20">
         <v>0</v>
@@ -6849,48 +6837,48 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>2945</v>
+        <v>2943</v>
       </c>
       <c r="B21">
         <v>53</v>
       </c>
       <c r="C21" s="1">
-        <v>43494.646724537037</v>
+        <v>43503.280416666668</v>
       </c>
       <c r="D21" s="1">
-        <v>43494.646724537037</v>
+        <v>43503.280416666668</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F21" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H21" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I21" t="s">
         <v>26</v>
       </c>
       <c r="J21" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="L21" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O21" s="1">
-        <v>44145.519687499997</v>
+        <v>43634.710914351854</v>
       </c>
       <c r="P21" s="1">
-        <v>44145.394687499997</v>
+        <v>43634.585914351854</v>
       </c>
       <c r="R21">
         <v>0</v>
       </c>
       <c r="S21" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="T21">
         <v>0</v>
@@ -6902,48 +6890,48 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>2932</v>
+        <v>2990</v>
       </c>
       <c r="B22">
         <v>53</v>
       </c>
       <c r="C22" s="1">
-        <v>43500.258773148147</v>
+        <v>43514.276921296296</v>
       </c>
       <c r="D22" s="1">
-        <v>43500.258773148147</v>
+        <v>43514.276921296296</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F22" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H22" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I22" t="s">
         <v>26</v>
       </c>
       <c r="J22" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="L22" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="O22" s="1">
-        <v>45110.598495370374</v>
+        <v>44145.515300925923</v>
       </c>
       <c r="P22" s="1">
-        <v>45110.473495370374</v>
+        <v>44145.390300925923</v>
       </c>
       <c r="R22">
         <v>0</v>
       </c>
       <c r="S22" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="T22">
         <v>0</v>
@@ -6955,48 +6943,48 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>2943</v>
+        <v>3009</v>
       </c>
       <c r="B23">
         <v>53</v>
       </c>
       <c r="C23" s="1">
-        <v>43503.280416666668</v>
+        <v>43523.582592592589</v>
       </c>
       <c r="D23" s="1">
-        <v>43503.280416666668</v>
+        <v>43523.582592592589</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F23" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H23" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I23" t="s">
         <v>26</v>
       </c>
       <c r="J23" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="L23" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="O23" s="1">
-        <v>43634.710914351854</v>
+        <v>43523.582592592589</v>
       </c>
       <c r="P23" s="1">
-        <v>43634.585914351854</v>
+        <v>43523.582592592589</v>
       </c>
       <c r="R23">
         <v>0</v>
       </c>
       <c r="S23" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="T23">
         <v>0</v>
@@ -7008,48 +6996,48 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>2990</v>
+        <v>3036</v>
       </c>
       <c r="B24">
         <v>53</v>
       </c>
       <c r="C24" s="1">
-        <v>43514.276921296296</v>
+        <v>43535.443553240744</v>
       </c>
       <c r="D24" s="1">
-        <v>43514.276921296296</v>
+        <v>43535.443553240744</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F24" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H24" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I24" t="s">
         <v>26</v>
       </c>
       <c r="J24" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="L24" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="O24" s="1">
-        <v>44145.515300925923</v>
+        <v>44145.514108796298</v>
       </c>
       <c r="P24" s="1">
-        <v>44145.390300925923</v>
+        <v>44145.389108796298</v>
       </c>
       <c r="R24">
         <v>0</v>
       </c>
       <c r="S24" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="T24">
         <v>0</v>
@@ -7061,48 +7049,48 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>3009</v>
+        <v>3040</v>
       </c>
       <c r="B25">
         <v>53</v>
       </c>
       <c r="C25" s="1">
-        <v>43523.582592592589</v>
+        <v>43578.366898148146</v>
       </c>
       <c r="D25" s="1">
-        <v>43523.582592592589</v>
+        <v>43578.366898148146</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F25" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H25" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I25" t="s">
         <v>26</v>
       </c>
       <c r="J25" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="L25" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="O25" s="1">
-        <v>43523.582592592589</v>
+        <v>44145.511840277781</v>
       </c>
       <c r="P25" s="1">
-        <v>43523.582592592589</v>
+        <v>44145.386840277781</v>
       </c>
       <c r="R25">
         <v>0</v>
       </c>
       <c r="S25" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="T25">
         <v>0</v>
@@ -7114,48 +7102,48 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>3036</v>
+        <v>3034</v>
       </c>
       <c r="B26">
         <v>53</v>
       </c>
       <c r="C26" s="1">
-        <v>43535.443553240744</v>
+        <v>43578.375763888886</v>
       </c>
       <c r="D26" s="1">
-        <v>43535.443553240744</v>
+        <v>43578.375763888886</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F26" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H26" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I26" t="s">
         <v>26</v>
       </c>
       <c r="J26" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="L26" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="O26" s="1">
-        <v>44145.514108796298</v>
+        <v>44390.511296296296</v>
       </c>
       <c r="P26" s="1">
-        <v>44145.389108796298</v>
+        <v>44390.386296296296</v>
       </c>
       <c r="R26">
         <v>0</v>
       </c>
       <c r="S26" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="T26">
         <v>0</v>
@@ -7167,48 +7155,48 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>3040</v>
+        <v>3028</v>
       </c>
       <c r="B27">
         <v>53</v>
       </c>
       <c r="C27" s="1">
-        <v>43578.366898148146</v>
+        <v>43578.400590277779</v>
       </c>
       <c r="D27" s="1">
-        <v>43578.366898148146</v>
+        <v>43578.400590277779</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F27" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H27" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I27" t="s">
         <v>26</v>
       </c>
       <c r="J27" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="L27" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="O27" s="1">
-        <v>44145.511840277781</v>
+        <v>44145.510023148148</v>
       </c>
       <c r="P27" s="1">
-        <v>44145.386840277781</v>
+        <v>44145.385023148148</v>
       </c>
       <c r="R27">
         <v>0</v>
       </c>
       <c r="S27" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="T27">
         <v>0</v>
@@ -7220,48 +7208,48 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>3034</v>
+        <v>3216</v>
       </c>
       <c r="B28">
         <v>53</v>
       </c>
       <c r="C28" s="1">
-        <v>43578.375763888886</v>
+        <v>43589.2809837963</v>
       </c>
       <c r="D28" s="1">
-        <v>43578.375763888886</v>
+        <v>43589.2809837963</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F28" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H28" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I28" t="s">
         <v>26</v>
       </c>
       <c r="J28" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="L28" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="O28" s="1">
-        <v>44390.511296296296</v>
+        <v>44145.508715277778</v>
       </c>
       <c r="P28" s="1">
-        <v>44390.386296296296</v>
+        <v>44145.383715277778</v>
       </c>
       <c r="R28">
         <v>0</v>
       </c>
       <c r="S28" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="T28">
         <v>0</v>
@@ -7273,48 +7261,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>3028</v>
+        <v>3219</v>
       </c>
       <c r="B29">
         <v>53</v>
       </c>
       <c r="C29" s="1">
-        <v>43578.400590277779</v>
+        <v>43589.298368055555</v>
       </c>
       <c r="D29" s="1">
-        <v>43578.400590277779</v>
+        <v>43589.298368055555</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F29" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H29" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I29" t="s">
         <v>26</v>
       </c>
       <c r="J29" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="L29" t="s">
-        <v>136</v>
+        <v>138</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>139</v>
       </c>
       <c r="O29" s="1">
-        <v>44145.510023148148</v>
+        <v>43704.529328703706</v>
       </c>
       <c r="P29" s="1">
-        <v>44145.385023148148</v>
+        <v>43704.404328703706</v>
       </c>
       <c r="R29">
         <v>0</v>
       </c>
       <c r="S29" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="T29">
         <v>0</v>
@@ -7326,27 +7317,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>3216</v>
+        <v>3233</v>
       </c>
       <c r="B30">
         <v>53</v>
       </c>
       <c r="C30" s="1">
-        <v>43589.2809837963</v>
+        <v>43599.473935185182</v>
       </c>
       <c r="D30" s="1">
-        <v>43589.2809837963</v>
+        <v>43599.473935185182</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="F30" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="H30" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I30" t="s">
         <v>26</v>
@@ -7355,19 +7346,22 @@
         <v>26</v>
       </c>
       <c r="L30" t="s">
-        <v>140</v>
+        <v>143</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>144</v>
       </c>
       <c r="O30" s="1">
-        <v>44145.508715277778</v>
+        <v>45110.584733796299</v>
       </c>
       <c r="P30" s="1">
-        <v>44145.383715277778</v>
+        <v>45110.459733796299</v>
       </c>
       <c r="R30">
         <v>0</v>
       </c>
       <c r="S30" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="T30">
         <v>0</v>
@@ -7379,27 +7373,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>3219</v>
+        <v>3263</v>
       </c>
       <c r="B31">
         <v>53</v>
       </c>
       <c r="C31" s="1">
-        <v>43589.298368055555</v>
+        <v>43606.491018518522</v>
       </c>
       <c r="D31" s="1">
-        <v>43589.298368055555</v>
+        <v>43606.491018518522</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="F31" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="H31" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I31" t="s">
         <v>26</v>
@@ -7408,22 +7402,19 @@
         <v>26</v>
       </c>
       <c r="L31" t="s">
-        <v>144</v>
-      </c>
-      <c r="N31" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="O31" s="1">
-        <v>43704.529328703706</v>
+        <v>43656.616805555554</v>
       </c>
       <c r="P31" s="1">
-        <v>43704.404328703706</v>
+        <v>43656.491805555554</v>
       </c>
       <c r="R31">
         <v>0</v>
       </c>
       <c r="S31" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="T31">
         <v>0</v>
@@ -7435,27 +7426,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>3233</v>
+        <v>3357</v>
       </c>
       <c r="B32">
         <v>53</v>
       </c>
       <c r="C32" s="1">
-        <v>43599.473935185182</v>
+        <v>43630.367488425924</v>
       </c>
       <c r="D32" s="1">
-        <v>43599.473935185182</v>
+        <v>43630.242488425924</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="F32" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="H32" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I32" t="s">
         <v>26</v>
@@ -7464,22 +7455,19 @@
         <v>26</v>
       </c>
       <c r="L32" t="s">
-        <v>149</v>
-      </c>
-      <c r="N32" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O32" s="1">
-        <v>45110.584733796299</v>
+        <v>44540.515729166669</v>
       </c>
       <c r="P32" s="1">
-        <v>45110.459733796299</v>
+        <v>44540.390729166669</v>
       </c>
       <c r="R32">
         <v>0</v>
       </c>
       <c r="S32" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="T32">
         <v>0</v>
@@ -7491,27 +7479,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>3263</v>
+        <v>3424</v>
       </c>
       <c r="B33">
         <v>53</v>
       </c>
       <c r="C33" s="1">
-        <v>43606.491018518522</v>
+        <v>43642.384837962964</v>
       </c>
       <c r="D33" s="1">
-        <v>43606.491018518522</v>
+        <v>43642.259837962964</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F33" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="H33" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I33" t="s">
         <v>26</v>
@@ -7520,19 +7508,22 @@
         <v>26</v>
       </c>
       <c r="L33" t="s">
-        <v>154</v>
+        <v>156</v>
+      </c>
+      <c r="N33" s="2" t="s">
+        <v>157</v>
       </c>
       <c r="O33" s="1">
-        <v>43656.616805555554</v>
+        <v>44145.503101851849</v>
       </c>
       <c r="P33" s="1">
-        <v>43656.491805555554</v>
+        <v>44145.378101851849</v>
       </c>
       <c r="R33">
         <v>0</v>
       </c>
       <c r="S33" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="T33">
         <v>0</v>
@@ -7544,48 +7535,48 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>3357</v>
+        <v>3001</v>
       </c>
       <c r="B34">
         <v>53</v>
       </c>
       <c r="C34" s="1">
-        <v>43630.367488425924</v>
+        <v>43654.621898148151</v>
       </c>
       <c r="D34" s="1">
-        <v>43630.242488425924</v>
+        <v>43654.496898148151</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F34" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="H34" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I34" t="s">
         <v>26</v>
       </c>
       <c r="J34" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="L34" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="O34" s="1">
-        <v>44540.515729166669</v>
+        <v>44145.501469907409</v>
       </c>
       <c r="P34" s="1">
-        <v>44540.390729166669</v>
+        <v>44145.376469907409</v>
       </c>
       <c r="R34">
         <v>0</v>
       </c>
       <c r="S34" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="T34">
         <v>0</v>
@@ -7597,51 +7588,48 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>3424</v>
+        <v>3014</v>
       </c>
       <c r="B35">
         <v>53</v>
       </c>
       <c r="C35" s="1">
-        <v>43642.384837962964</v>
+        <v>43672.64502314815</v>
       </c>
       <c r="D35" s="1">
-        <v>43642.259837962964</v>
+        <v>43672.52002314815</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="F35" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="H35" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I35" t="s">
         <v>26</v>
       </c>
       <c r="J35" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="L35" t="s">
-        <v>162</v>
-      </c>
-      <c r="N35" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="O35" s="1">
-        <v>44145.503101851849</v>
+        <v>44145.500219907408</v>
       </c>
       <c r="P35" s="1">
-        <v>44145.378101851849</v>
+        <v>44145.375219907408</v>
       </c>
       <c r="R35">
         <v>0</v>
       </c>
       <c r="S35" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="T35">
         <v>0</v>
@@ -7653,48 +7641,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>3001</v>
+        <v>3674</v>
       </c>
       <c r="B36">
         <v>53</v>
       </c>
       <c r="C36" s="1">
-        <v>43654.621898148151</v>
+        <v>43724.535011574073</v>
       </c>
       <c r="D36" s="1">
-        <v>43654.496898148151</v>
+        <v>43724.410011574073</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F36" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="H36" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I36" t="s">
         <v>26</v>
       </c>
       <c r="J36" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="L36" t="s">
-        <v>167</v>
+        <v>169</v>
+      </c>
+      <c r="N36" s="2" t="s">
+        <v>170</v>
       </c>
       <c r="O36" s="1">
-        <v>44145.501469907409</v>
+        <v>44145.499571759261</v>
       </c>
       <c r="P36" s="1">
-        <v>44145.376469907409</v>
+        <v>44145.374571759261</v>
       </c>
       <c r="R36">
         <v>0</v>
       </c>
       <c r="S36" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="T36">
         <v>0</v>
@@ -7706,48 +7697,48 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>3014</v>
+        <v>3700</v>
       </c>
       <c r="B37">
         <v>53</v>
       </c>
       <c r="C37" s="1">
-        <v>43672.64502314815</v>
+        <v>43753.461041666669</v>
       </c>
       <c r="D37" s="1">
-        <v>43672.52002314815</v>
+        <v>43753.336041666669</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="F37" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="H37" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I37" t="s">
         <v>26</v>
       </c>
       <c r="J37" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="L37" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="O37" s="1">
-        <v>44145.500219907408</v>
+        <v>44145.498784722222</v>
       </c>
       <c r="P37" s="1">
-        <v>44145.375219907408</v>
+        <v>44145.373784722222</v>
       </c>
       <c r="R37">
         <v>0</v>
       </c>
       <c r="S37" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="T37">
         <v>0</v>
@@ -7759,27 +7750,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>3674</v>
+        <v>3235</v>
       </c>
       <c r="B38">
         <v>53</v>
       </c>
       <c r="C38" s="1">
-        <v>43724.535011574073</v>
+        <v>43766.510567129626</v>
       </c>
       <c r="D38" s="1">
-        <v>43724.410011574073</v>
+        <v>43766.385567129626</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="F38" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="H38" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I38" t="s">
         <v>26</v>
@@ -7788,22 +7779,22 @@
         <v>26</v>
       </c>
       <c r="L38" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="O38" s="1">
-        <v>44145.499571759261</v>
+        <v>44540.511666666665</v>
       </c>
       <c r="P38" s="1">
-        <v>44145.374571759261</v>
+        <v>44540.386666666665</v>
       </c>
       <c r="R38">
         <v>0</v>
       </c>
       <c r="S38" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="T38">
         <v>0</v>
@@ -7815,27 +7806,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>3700</v>
+        <v>3798</v>
       </c>
       <c r="B39">
         <v>53</v>
       </c>
       <c r="C39" s="1">
-        <v>43753.461041666669</v>
+        <v>43782.441805555558</v>
       </c>
       <c r="D39" s="1">
-        <v>43753.336041666669</v>
+        <v>43782.316805555558</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="F39" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="H39" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I39" t="s">
         <v>26</v>
@@ -7844,19 +7835,19 @@
         <v>26</v>
       </c>
       <c r="L39" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="O39" s="1">
-        <v>44145.498784722222</v>
+        <v>43797.675324074073</v>
       </c>
       <c r="P39" s="1">
-        <v>44145.373784722222</v>
+        <v>43797.550324074073</v>
       </c>
       <c r="R39">
         <v>0</v>
       </c>
       <c r="S39" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="T39">
         <v>0</v>
@@ -7868,27 +7859,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>3235</v>
+        <v>3814</v>
       </c>
       <c r="B40">
         <v>53</v>
       </c>
       <c r="C40" s="1">
-        <v>43766.510567129626</v>
+        <v>43797.708993055552</v>
       </c>
       <c r="D40" s="1">
-        <v>43766.385567129626</v>
+        <v>43797.583993055552</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="F40" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="H40" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I40" t="s">
         <v>26</v>
@@ -7897,22 +7888,22 @@
         <v>26</v>
       </c>
       <c r="L40" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="O40" s="1">
-        <v>44540.511666666665</v>
+        <v>44145.496851851851</v>
       </c>
       <c r="P40" s="1">
-        <v>44540.386666666665</v>
+        <v>44145.371851851851</v>
       </c>
       <c r="R40">
         <v>0</v>
       </c>
       <c r="S40" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="T40">
         <v>0</v>
@@ -7924,27 +7915,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>3798</v>
+        <v>3931</v>
       </c>
       <c r="B41">
         <v>53</v>
       </c>
       <c r="C41" s="1">
-        <v>43782.441805555558</v>
+        <v>43803.670439814814</v>
       </c>
       <c r="D41" s="1">
-        <v>43782.316805555558</v>
+        <v>43803.545439814814</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="F41" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="H41" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I41" t="s">
         <v>26</v>
@@ -7953,19 +7944,19 @@
         <v>26</v>
       </c>
       <c r="L41" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="O41" s="1">
-        <v>43797.675324074073</v>
+        <v>43809.672685185185</v>
       </c>
       <c r="P41" s="1">
-        <v>43797.550324074073</v>
+        <v>43809.547685185185</v>
       </c>
       <c r="R41">
         <v>0</v>
       </c>
       <c r="S41" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="T41">
         <v>0</v>
@@ -7977,27 +7968,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>3814</v>
+        <v>3934</v>
       </c>
       <c r="B42">
         <v>53</v>
       </c>
       <c r="C42" s="1">
-        <v>43797.708993055552</v>
+        <v>43816.702118055553</v>
       </c>
       <c r="D42" s="1">
-        <v>43797.583993055552</v>
+        <v>43816.577118055553</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="F42" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="H42" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I42" t="s">
         <v>26</v>
@@ -8006,22 +7997,19 @@
         <v>26</v>
       </c>
       <c r="L42" t="s">
-        <v>193</v>
-      </c>
-      <c r="N42" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="O42" s="1">
-        <v>44145.496851851851</v>
+        <v>44145.496134259258</v>
       </c>
       <c r="P42" s="1">
-        <v>44145.371851851851</v>
+        <v>44145.371134259258</v>
       </c>
       <c r="R42">
         <v>0</v>
       </c>
       <c r="S42" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="T42">
         <v>0</v>
@@ -8033,27 +8021,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>3931</v>
+        <v>3977</v>
       </c>
       <c r="B43">
         <v>53</v>
       </c>
       <c r="C43" s="1">
-        <v>43803.670439814814</v>
+        <v>43850.702719907407</v>
       </c>
       <c r="D43" s="1">
-        <v>43803.545439814814</v>
+        <v>43850.577719907407</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F43" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="H43" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I43" t="s">
         <v>26</v>
@@ -8062,19 +8050,19 @@
         <v>26</v>
       </c>
       <c r="L43" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="O43" s="1">
-        <v>43809.672685185185</v>
+        <v>44523.588622685187</v>
       </c>
       <c r="P43" s="1">
-        <v>43809.547685185185</v>
+        <v>44523.463622685187</v>
       </c>
       <c r="R43">
         <v>0</v>
       </c>
       <c r="S43" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="T43">
         <v>0</v>
@@ -8086,27 +8074,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>3934</v>
+        <v>3983</v>
       </c>
       <c r="B44">
         <v>53</v>
       </c>
       <c r="C44" s="1">
-        <v>43816.702118055553</v>
+        <v>43865.473622685182</v>
       </c>
       <c r="D44" s="1">
-        <v>43816.577118055553</v>
+        <v>43865.348622685182</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F44" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="H44" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I44" t="s">
         <v>26</v>
@@ -8115,19 +8103,22 @@
         <v>26</v>
       </c>
       <c r="L44" t="s">
-        <v>202</v>
+        <v>204</v>
+      </c>
+      <c r="N44" s="2" t="s">
+        <v>188</v>
       </c>
       <c r="O44" s="1">
-        <v>44145.496134259258</v>
+        <v>44145.494942129626</v>
       </c>
       <c r="P44" s="1">
-        <v>44145.371134259258</v>
+        <v>44145.369942129626</v>
       </c>
       <c r="R44">
         <v>0</v>
       </c>
       <c r="S44" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="T44">
         <v>0</v>
@@ -8139,27 +8130,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>3977</v>
+        <v>3996</v>
       </c>
       <c r="B45">
         <v>53</v>
       </c>
       <c r="C45" s="1">
-        <v>43850.702719907407</v>
+        <v>43873.641493055555</v>
       </c>
       <c r="D45" s="1">
-        <v>43850.577719907407</v>
+        <v>43873.516493055555</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F45" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H45" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I45" t="s">
         <v>26</v>
@@ -8168,19 +8159,19 @@
         <v>26</v>
       </c>
       <c r="L45" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="O45" s="1">
-        <v>44523.588622685187</v>
+        <v>43873.641493055555</v>
       </c>
       <c r="P45" s="1">
-        <v>44523.463622685187</v>
+        <v>43873.516493055555</v>
       </c>
       <c r="R45">
         <v>0</v>
       </c>
       <c r="S45" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="T45">
         <v>0</v>
@@ -8192,27 +8183,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>3983</v>
+        <v>4001</v>
       </c>
       <c r="B46">
         <v>53</v>
       </c>
       <c r="C46" s="1">
-        <v>43865.473622685182</v>
+        <v>43874.220173611109</v>
       </c>
       <c r="D46" s="1">
-        <v>43865.348622685182</v>
+        <v>43874.095173611109</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F46" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H46" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I46" t="s">
         <v>26</v>
@@ -8221,22 +8212,19 @@
         <v>26</v>
       </c>
       <c r="L46" t="s">
-        <v>210</v>
-      </c>
-      <c r="N46" s="2" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="O46" s="1">
-        <v>44145.494942129626</v>
+        <v>44145.494189814817</v>
       </c>
       <c r="P46" s="1">
-        <v>44145.369942129626</v>
+        <v>44145.369189814817</v>
       </c>
       <c r="R46">
         <v>0</v>
       </c>
       <c r="S46" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="T46">
         <v>0</v>
@@ -8248,27 +8236,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>3996</v>
+        <v>4015</v>
       </c>
       <c r="B47">
         <v>53</v>
       </c>
       <c r="C47" s="1">
-        <v>43873.641493055555</v>
+        <v>43879.678078703706</v>
       </c>
       <c r="D47" s="1">
-        <v>43873.516493055555</v>
+        <v>43879.553078703706</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F47" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H47" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I47" t="s">
         <v>26</v>
@@ -8277,19 +8265,19 @@
         <v>26</v>
       </c>
       <c r="L47" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="O47" s="1">
-        <v>43873.641493055555</v>
+        <v>44145.493703703702</v>
       </c>
       <c r="P47" s="1">
-        <v>43873.516493055555</v>
+        <v>44145.368703703702</v>
       </c>
       <c r="R47">
         <v>0</v>
       </c>
       <c r="S47" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="T47">
         <v>0</v>
@@ -8301,27 +8289,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>4001</v>
+        <v>4025</v>
       </c>
       <c r="B48">
         <v>53</v>
       </c>
       <c r="C48" s="1">
-        <v>43874.220173611109</v>
+        <v>43893.711747685185</v>
       </c>
       <c r="D48" s="1">
-        <v>43874.095173611109</v>
+        <v>43893.586747685185</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F48" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="H48" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I48" t="s">
         <v>26</v>
@@ -8330,19 +8318,19 @@
         <v>26</v>
       </c>
       <c r="L48" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="O48" s="1">
-        <v>44145.494189814817</v>
+        <v>44145.493090277778</v>
       </c>
       <c r="P48" s="1">
-        <v>44145.369189814817</v>
+        <v>44145.368090277778</v>
       </c>
       <c r="R48">
         <v>0</v>
       </c>
       <c r="S48" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="T48">
         <v>0</v>
@@ -8354,27 +8342,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>4015</v>
+        <v>4031</v>
       </c>
       <c r="B49">
         <v>53</v>
       </c>
       <c r="C49" s="1">
-        <v>43879.678078703706</v>
+        <v>43895.621562499997</v>
       </c>
       <c r="D49" s="1">
-        <v>43879.553078703706</v>
+        <v>43895.496562499997</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F49" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="H49" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I49" t="s">
         <v>26</v>
@@ -8383,19 +8371,19 @@
         <v>26</v>
       </c>
       <c r="L49" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="O49" s="1">
-        <v>44145.493703703702</v>
+        <v>44145.492164351854</v>
       </c>
       <c r="P49" s="1">
-        <v>44145.368703703702</v>
+        <v>44145.367164351854</v>
       </c>
       <c r="R49">
         <v>0</v>
       </c>
       <c r="S49" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="T49">
         <v>0</v>
@@ -8407,27 +8395,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>4025</v>
+        <v>4033</v>
       </c>
       <c r="B50">
         <v>53</v>
       </c>
       <c r="C50" s="1">
-        <v>43893.711747685185</v>
+        <v>43896.324895833335</v>
       </c>
       <c r="D50" s="1">
-        <v>43893.586747685185</v>
+        <v>43896.199895833335</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F50" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H50" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I50" t="s">
         <v>26</v>
@@ -8436,19 +8424,19 @@
         <v>26</v>
       </c>
       <c r="L50" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="O50" s="1">
-        <v>44145.493090277778</v>
+        <v>43896.324895833335</v>
       </c>
       <c r="P50" s="1">
-        <v>44145.368090277778</v>
+        <v>43896.199895833335</v>
       </c>
       <c r="R50">
         <v>0</v>
       </c>
       <c r="S50" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="T50">
         <v>0</v>
@@ -8460,27 +8448,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>4031</v>
+        <v>4415</v>
       </c>
       <c r="B51">
         <v>53</v>
       </c>
       <c r="C51" s="1">
-        <v>43895.621562499997</v>
+        <v>43948.424745370372</v>
       </c>
       <c r="D51" s="1">
-        <v>43895.496562499997</v>
+        <v>43948.299745370372</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="F51" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="H51" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I51" t="s">
         <v>26</v>
@@ -8489,19 +8477,19 @@
         <v>26</v>
       </c>
       <c r="L51" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="O51" s="1">
-        <v>44145.492164351854</v>
+        <v>44145.491261574076</v>
       </c>
       <c r="P51" s="1">
-        <v>44145.367164351854</v>
+        <v>44145.366261574076</v>
       </c>
       <c r="R51">
         <v>0</v>
       </c>
       <c r="S51" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="T51">
         <v>0</v>
@@ -8513,27 +8501,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>4033</v>
+        <v>4889</v>
       </c>
       <c r="B52">
         <v>53</v>
       </c>
       <c r="C52" s="1">
-        <v>43896.324895833335</v>
+        <v>43963.502210648148</v>
       </c>
       <c r="D52" s="1">
-        <v>43896.199895833335</v>
+        <v>43963.377210648148</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F52" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="H52" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I52" t="s">
         <v>26</v>
@@ -8542,19 +8530,19 @@
         <v>26</v>
       </c>
       <c r="L52" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="O52" s="1">
-        <v>43896.324895833335</v>
+        <v>44145.490486111114</v>
       </c>
       <c r="P52" s="1">
-        <v>43896.199895833335</v>
+        <v>44145.365486111114</v>
       </c>
       <c r="R52">
         <v>0</v>
       </c>
       <c r="S52" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="T52">
         <v>0</v>
@@ -8566,27 +8554,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>4415</v>
+        <v>5113</v>
       </c>
       <c r="B53">
         <v>53</v>
       </c>
       <c r="C53" s="1">
-        <v>43948.424745370372</v>
+        <v>43969.366608796299</v>
       </c>
       <c r="D53" s="1">
-        <v>43948.299745370372</v>
+        <v>43969.241608796299</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F53" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H53" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I53" t="s">
         <v>26</v>
@@ -8595,19 +8583,19 @@
         <v>26</v>
       </c>
       <c r="L53" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="O53" s="1">
-        <v>44145.491261574076</v>
+        <v>44145.487037037034</v>
       </c>
       <c r="P53" s="1">
-        <v>44145.366261574076</v>
+        <v>44145.362037037034</v>
       </c>
       <c r="R53">
         <v>0</v>
       </c>
       <c r="S53" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="T53">
         <v>0</v>
@@ -8619,27 +8607,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>4889</v>
+        <v>5145</v>
       </c>
       <c r="B54">
         <v>53</v>
       </c>
       <c r="C54" s="1">
-        <v>43963.502210648148</v>
+        <v>43969.477268518516</v>
       </c>
       <c r="D54" s="1">
-        <v>43963.377210648148</v>
+        <v>43969.352268518516</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F54" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="H54" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I54" t="s">
         <v>26</v>
@@ -8648,19 +8636,19 @@
         <v>26</v>
       </c>
       <c r="L54" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="O54" s="1">
-        <v>44145.490486111114</v>
+        <v>44145.485821759263</v>
       </c>
       <c r="P54" s="1">
-        <v>44145.365486111114</v>
+        <v>44145.360821759263</v>
       </c>
       <c r="R54">
         <v>0</v>
       </c>
       <c r="S54" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="T54">
         <v>0</v>
@@ -8672,27 +8660,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>5113</v>
+        <v>5272</v>
       </c>
       <c r="B55">
         <v>53</v>
       </c>
       <c r="C55" s="1">
-        <v>43969.366608796299</v>
+        <v>43978.381678240738</v>
       </c>
       <c r="D55" s="1">
-        <v>43969.241608796299</v>
+        <v>43978.256678240738</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F55" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="H55" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I55" t="s">
         <v>26</v>
@@ -8701,19 +8689,22 @@
         <v>26</v>
       </c>
       <c r="L55" t="s">
-        <v>246</v>
+        <v>248</v>
+      </c>
+      <c r="N55" s="2" t="s">
+        <v>249</v>
       </c>
       <c r="O55" s="1">
-        <v>44145.487037037034</v>
+        <v>44145.485173611109</v>
       </c>
       <c r="P55" s="1">
-        <v>44145.362037037034</v>
+        <v>44145.360173611109</v>
       </c>
       <c r="R55">
         <v>0</v>
       </c>
       <c r="S55" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="T55">
         <v>0</v>
@@ -8725,27 +8716,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>5145</v>
+        <v>5825</v>
       </c>
       <c r="B56">
         <v>53</v>
       </c>
       <c r="C56" s="1">
-        <v>43969.477268518516</v>
+        <v>44019.631666666668</v>
       </c>
       <c r="D56" s="1">
-        <v>43969.352268518516</v>
+        <v>44019.506666666668</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="F56" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="H56" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I56" t="s">
         <v>26</v>
@@ -8754,19 +8745,19 @@
         <v>26</v>
       </c>
       <c r="L56" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="O56" s="1">
-        <v>44145.485821759263</v>
+        <v>44145.480937499997</v>
       </c>
       <c r="P56" s="1">
-        <v>44145.360821759263</v>
+        <v>44145.355937499997</v>
       </c>
       <c r="R56">
         <v>0</v>
       </c>
       <c r="S56" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="T56">
         <v>0</v>
@@ -8778,27 +8769,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>5272</v>
+        <v>6018</v>
       </c>
       <c r="B57">
         <v>53</v>
       </c>
       <c r="C57" s="1">
-        <v>43978.381678240738</v>
+        <v>44056.456331018519</v>
       </c>
       <c r="D57" s="1">
-        <v>43978.256678240738</v>
+        <v>44056.331331018519</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="F57" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="H57" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I57" t="s">
         <v>26</v>
@@ -8807,22 +8798,22 @@
         <v>26</v>
       </c>
       <c r="L57" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="O57" s="1">
-        <v>44145.485173611109</v>
+        <v>44145.484340277777</v>
       </c>
       <c r="P57" s="1">
-        <v>44145.360173611109</v>
+        <v>44145.359340277777</v>
       </c>
       <c r="R57">
         <v>0</v>
       </c>
       <c r="S57" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="T57">
         <v>0</v>
@@ -8834,27 +8825,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>5825</v>
+        <v>6312</v>
       </c>
       <c r="B58">
         <v>53</v>
       </c>
       <c r="C58" s="1">
-        <v>44019.631666666668</v>
+        <v>44134.48605324074</v>
       </c>
       <c r="D58" s="1">
-        <v>44019.506666666668</v>
+        <v>44134.36105324074</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="F58" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="H58" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I58" t="s">
         <v>26</v>
@@ -8863,19 +8854,19 @@
         <v>26</v>
       </c>
       <c r="L58" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="O58" s="1">
-        <v>44145.480937499997</v>
+        <v>44151.428900462961</v>
       </c>
       <c r="P58" s="1">
-        <v>44145.355937499997</v>
+        <v>44151.303900462961</v>
       </c>
       <c r="R58">
         <v>0</v>
       </c>
       <c r="S58" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="T58">
         <v>0</v>
@@ -8887,51 +8878,48 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>6018</v>
+        <v>2947</v>
       </c>
       <c r="B59">
         <v>53</v>
       </c>
       <c r="C59" s="1">
-        <v>44056.456331018519</v>
+        <v>44145.518784722219</v>
       </c>
       <c r="D59" s="1">
-        <v>44056.331331018519</v>
+        <v>44145.393784722219</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="F59" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="H59" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I59" t="s">
         <v>26</v>
       </c>
       <c r="J59" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="L59" t="s">
-        <v>263</v>
-      </c>
-      <c r="N59" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="O59" s="1">
-        <v>44145.484340277777</v>
+        <v>44165.541064814817</v>
       </c>
       <c r="P59" s="1">
-        <v>44145.359340277777</v>
+        <v>44165.416064814817</v>
       </c>
       <c r="R59">
         <v>0</v>
       </c>
       <c r="S59" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="T59">
         <v>0</v>
@@ -8943,27 +8931,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>6312</v>
+        <v>6659</v>
       </c>
       <c r="B60">
         <v>53</v>
       </c>
       <c r="C60" s="1">
-        <v>44134.48605324074</v>
+        <v>44166.787430555552</v>
       </c>
       <c r="D60" s="1">
-        <v>44134.36105324074</v>
+        <v>44166.662430555552</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F60" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="H60" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I60" t="s">
         <v>26</v>
@@ -8972,19 +8960,19 @@
         <v>26</v>
       </c>
       <c r="L60" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="O60" s="1">
-        <v>44151.428900462961</v>
+        <v>44166.787430555552</v>
       </c>
       <c r="P60" s="1">
-        <v>44151.303900462961</v>
+        <v>44166.662430555552</v>
       </c>
       <c r="R60">
         <v>0</v>
       </c>
       <c r="S60" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="T60">
         <v>0</v>
@@ -8996,48 +8984,48 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>2947</v>
+        <v>6740</v>
       </c>
       <c r="B61">
         <v>53</v>
       </c>
       <c r="C61" s="1">
-        <v>44145.518784722219</v>
+        <v>44174.371099537035</v>
       </c>
       <c r="D61" s="1">
-        <v>44145.393784722219</v>
+        <v>44174.246099537035</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="F61" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="H61" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I61" t="s">
         <v>26</v>
       </c>
       <c r="J61" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="L61" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="O61" s="1">
-        <v>44165.541064814817</v>
+        <v>44223.365254629629</v>
       </c>
       <c r="P61" s="1">
-        <v>44165.416064814817</v>
+        <v>44223.240254629629</v>
       </c>
       <c r="R61">
         <v>0</v>
       </c>
       <c r="S61" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="T61">
         <v>0</v>
@@ -9049,27 +9037,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>6659</v>
+        <v>6998</v>
       </c>
       <c r="B62">
         <v>53</v>
       </c>
       <c r="C62" s="1">
-        <v>44166.787430555552</v>
+        <v>44231.559537037036</v>
       </c>
       <c r="D62" s="1">
-        <v>44166.662430555552</v>
+        <v>44231.434537037036</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F62" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="H62" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I62" t="s">
         <v>26</v>
@@ -9078,19 +9066,19 @@
         <v>26</v>
       </c>
       <c r="L62" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="O62" s="1">
-        <v>44166.787430555552</v>
+        <v>44231.559537037036</v>
       </c>
       <c r="P62" s="1">
-        <v>44166.662430555552</v>
+        <v>44231.434537037036</v>
       </c>
       <c r="R62">
         <v>0</v>
       </c>
       <c r="S62" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="T62">
         <v>0</v>
@@ -9102,27 +9090,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>6740</v>
+        <v>7211</v>
       </c>
       <c r="B63">
         <v>53</v>
       </c>
       <c r="C63" s="1">
-        <v>44174.371099537035</v>
+        <v>44277.438888888886</v>
       </c>
       <c r="D63" s="1">
-        <v>44174.246099537035</v>
+        <v>44277.313888888886</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F63" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="H63" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I63" t="s">
         <v>26</v>
@@ -9131,19 +9119,19 @@
         <v>26</v>
       </c>
       <c r="L63" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="O63" s="1">
-        <v>44223.365254629629</v>
+        <v>44277.440821759257</v>
       </c>
       <c r="P63" s="1">
-        <v>44223.240254629629</v>
+        <v>44277.315821759257</v>
       </c>
       <c r="R63">
         <v>0</v>
       </c>
       <c r="S63" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="T63">
         <v>0</v>
@@ -9155,27 +9143,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>6998</v>
+        <v>7222</v>
       </c>
       <c r="B64">
         <v>53</v>
       </c>
       <c r="C64" s="1">
-        <v>44231.559537037036</v>
+        <v>44277.541770833333</v>
       </c>
       <c r="D64" s="1">
-        <v>44231.434537037036</v>
+        <v>44277.416770833333</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F64" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H64" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I64" t="s">
         <v>26</v>
@@ -9184,19 +9172,19 @@
         <v>26</v>
       </c>
       <c r="L64" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="O64" s="1">
-        <v>44231.559537037036</v>
+        <v>44277.542280092595</v>
       </c>
       <c r="P64" s="1">
-        <v>44231.434537037036</v>
+        <v>44277.417280092595</v>
       </c>
       <c r="R64">
         <v>0</v>
       </c>
       <c r="S64" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="T64">
         <v>0</v>
@@ -9208,27 +9196,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>7211</v>
+        <v>7231</v>
       </c>
       <c r="B65">
         <v>53</v>
       </c>
       <c r="C65" s="1">
-        <v>44277.438888888886</v>
+        <v>44277.69976851852</v>
       </c>
       <c r="D65" s="1">
-        <v>44277.313888888886</v>
+        <v>44277.57476851852</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F65" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="H65" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I65" t="s">
         <v>26</v>
@@ -9237,19 +9225,19 @@
         <v>26</v>
       </c>
       <c r="L65" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="O65" s="1">
-        <v>44277.440821759257</v>
+        <v>44278.572245370371</v>
       </c>
       <c r="P65" s="1">
-        <v>44277.315821759257</v>
+        <v>44278.447245370371</v>
       </c>
       <c r="R65">
         <v>0</v>
       </c>
       <c r="S65" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="T65">
         <v>0</v>
@@ -9261,27 +9249,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>7222</v>
+        <v>7303</v>
       </c>
       <c r="B66">
         <v>53</v>
       </c>
       <c r="C66" s="1">
-        <v>44277.541770833333</v>
+        <v>44284.653969907406</v>
       </c>
       <c r="D66" s="1">
-        <v>44277.416770833333</v>
+        <v>44284.528969907406</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="F66" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H66" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I66" t="s">
         <v>26</v>
@@ -9290,19 +9278,19 @@
         <v>26</v>
       </c>
       <c r="L66" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="O66" s="1">
-        <v>44277.542280092595</v>
+        <v>44284.658171296294</v>
       </c>
       <c r="P66" s="1">
-        <v>44277.417280092595</v>
+        <v>44284.533171296294</v>
       </c>
       <c r="R66">
         <v>0</v>
       </c>
       <c r="S66" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="T66">
         <v>0</v>
@@ -9314,27 +9302,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>7231</v>
+        <v>7341</v>
       </c>
       <c r="B67">
         <v>53</v>
       </c>
       <c r="C67" s="1">
-        <v>44277.69976851852</v>
+        <v>44292.625972222224</v>
       </c>
       <c r="D67" s="1">
-        <v>44277.57476851852</v>
+        <v>44292.500972222224</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F67" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="H67" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I67" t="s">
         <v>26</v>
@@ -9343,19 +9331,19 @@
         <v>26</v>
       </c>
       <c r="L67" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="O67" s="1">
-        <v>44278.572245370371</v>
+        <v>44389.667604166665</v>
       </c>
       <c r="P67" s="1">
-        <v>44278.447245370371</v>
+        <v>44389.542604166665</v>
       </c>
       <c r="R67">
         <v>0</v>
       </c>
       <c r="S67" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="T67">
         <v>0</v>
@@ -9367,27 +9355,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>7303</v>
+        <v>7554</v>
       </c>
       <c r="B68">
         <v>53</v>
       </c>
       <c r="C68" s="1">
-        <v>44284.653969907406</v>
+        <v>44351.50513888889</v>
       </c>
       <c r="D68" s="1">
-        <v>44284.528969907406</v>
+        <v>44351.38013888889</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F68" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="H68" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I68" t="s">
         <v>26</v>
@@ -9396,19 +9384,19 @@
         <v>26</v>
       </c>
       <c r="L68" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="O68" s="1">
-        <v>44284.658171296294</v>
+        <v>44354.49726851852</v>
       </c>
       <c r="P68" s="1">
-        <v>44284.533171296294</v>
+        <v>44354.37226851852</v>
       </c>
       <c r="R68">
         <v>0</v>
       </c>
       <c r="S68" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="T68">
         <v>0</v>
@@ -9420,27 +9408,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>7341</v>
+        <v>8084</v>
       </c>
       <c r="B69">
         <v>53</v>
       </c>
       <c r="C69" s="1">
-        <v>44292.625972222224</v>
+        <v>44425.36954861111</v>
       </c>
       <c r="D69" s="1">
-        <v>44292.500972222224</v>
+        <v>44425.24454861111</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F69" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="H69" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I69" t="s">
         <v>26</v>
@@ -9449,19 +9437,19 @@
         <v>26</v>
       </c>
       <c r="L69" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="O69" s="1">
-        <v>44389.667604166665</v>
+        <v>44425.370023148149</v>
       </c>
       <c r="P69" s="1">
-        <v>44389.542604166665</v>
+        <v>44425.245023148149</v>
       </c>
       <c r="R69">
         <v>0</v>
       </c>
       <c r="S69" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="T69">
         <v>0</v>
@@ -9473,27 +9461,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>7554</v>
+        <v>8094</v>
       </c>
       <c r="B70">
         <v>53</v>
       </c>
       <c r="C70" s="1">
-        <v>44351.50513888889</v>
+        <v>44442.375833333332</v>
       </c>
       <c r="D70" s="1">
-        <v>44351.38013888889</v>
+        <v>44442.250833333332</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="F70" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="H70" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I70" t="s">
         <v>26</v>
@@ -9502,19 +9490,22 @@
         <v>26</v>
       </c>
       <c r="L70" t="s">
-        <v>308</v>
+        <v>310</v>
+      </c>
+      <c r="N70" s="2" t="s">
+        <v>311</v>
       </c>
       <c r="O70" s="1">
-        <v>44354.49726851852</v>
+        <v>44442.376145833332</v>
       </c>
       <c r="P70" s="1">
-        <v>44354.37226851852</v>
+        <v>44442.251145833332</v>
       </c>
       <c r="R70">
         <v>0</v>
       </c>
       <c r="S70" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="T70">
         <v>0</v>
@@ -9526,48 +9517,48 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>8084</v>
+        <v>2725</v>
       </c>
       <c r="B71">
         <v>53</v>
       </c>
       <c r="C71" s="1">
-        <v>44425.36954861111</v>
+        <v>44444.280972222223</v>
       </c>
       <c r="D71" s="1">
-        <v>44425.24454861111</v>
+        <v>44444.155972222223</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="F71" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="H71" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I71" t="s">
         <v>26</v>
       </c>
       <c r="J71" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="L71" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="O71" s="1">
-        <v>44425.370023148149</v>
+        <v>44708.643935185188</v>
       </c>
       <c r="P71" s="1">
-        <v>44425.245023148149</v>
+        <v>44708.518935185188</v>
       </c>
       <c r="R71">
         <v>0</v>
       </c>
       <c r="S71" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="T71">
         <v>0</v>
@@ -9579,27 +9570,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>8094</v>
+        <v>8303</v>
       </c>
       <c r="B72">
         <v>53</v>
       </c>
       <c r="C72" s="1">
-        <v>44442.375833333332</v>
+        <v>44481.369814814818</v>
       </c>
       <c r="D72" s="1">
-        <v>44442.250833333332</v>
+        <v>44481.244814814818</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="F72" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="H72" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I72" t="s">
         <v>26</v>
@@ -9608,22 +9599,19 @@
         <v>26</v>
       </c>
       <c r="L72" t="s">
-        <v>316</v>
-      </c>
-      <c r="N72" s="2" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="O72" s="1">
-        <v>44442.376145833332</v>
+        <v>44502.370324074072</v>
       </c>
       <c r="P72" s="1">
-        <v>44442.251145833332</v>
+        <v>44502.245324074072</v>
       </c>
       <c r="R72">
         <v>0</v>
       </c>
       <c r="S72" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="T72">
         <v>0</v>
@@ -9635,48 +9623,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>2725</v>
+        <v>8227</v>
       </c>
       <c r="B73">
         <v>53</v>
       </c>
       <c r="C73" s="1">
-        <v>44444.280972222223</v>
+        <v>44482.618958333333</v>
       </c>
       <c r="D73" s="1">
-        <v>44444.155972222223</v>
+        <v>44482.493958333333</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="F73" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="H73" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I73" t="s">
         <v>26</v>
       </c>
       <c r="J73" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="L73" t="s">
-        <v>321</v>
+        <v>323</v>
+      </c>
+      <c r="N73" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="O73" s="1">
-        <v>44708.643935185188</v>
+        <v>44515.455381944441</v>
       </c>
       <c r="P73" s="1">
-        <v>44708.518935185188</v>
+        <v>44515.330381944441</v>
       </c>
       <c r="R73">
         <v>0</v>
       </c>
       <c r="S73" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="T73">
         <v>0</v>
@@ -9688,27 +9679,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>8303</v>
+        <v>8300</v>
       </c>
       <c r="B74">
         <v>53</v>
       </c>
       <c r="C74" s="1">
-        <v>44481.369814814818</v>
+        <v>44487.348981481482</v>
       </c>
       <c r="D74" s="1">
-        <v>44481.244814814818</v>
+        <v>44487.223981481482</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="F74" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="H74" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I74" t="s">
         <v>26</v>
@@ -9717,19 +9708,19 @@
         <v>26</v>
       </c>
       <c r="L74" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="O74" s="1">
-        <v>44502.370324074072</v>
+        <v>44706.377002314817</v>
       </c>
       <c r="P74" s="1">
-        <v>44502.245324074072</v>
+        <v>44706.252002314817</v>
       </c>
       <c r="R74">
         <v>0</v>
       </c>
       <c r="S74" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="T74">
         <v>0</v>
@@ -9741,27 +9732,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>8227</v>
+        <v>8283</v>
       </c>
       <c r="B75">
         <v>53</v>
       </c>
       <c r="C75" s="1">
-        <v>44482.618958333333</v>
+        <v>44493.394270833334</v>
       </c>
       <c r="D75" s="1">
-        <v>44482.493958333333</v>
+        <v>44493.269270833334</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="F75" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="H75" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I75" t="s">
         <v>26</v>
@@ -9770,22 +9761,19 @@
         <v>26</v>
       </c>
       <c r="L75" t="s">
-        <v>329</v>
-      </c>
-      <c r="N75" s="2" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="O75" s="1">
-        <v>44515.455381944441</v>
+        <v>44501.430405092593</v>
       </c>
       <c r="P75" s="1">
-        <v>44515.330381944441</v>
+        <v>44501.305405092593</v>
       </c>
       <c r="R75">
         <v>0</v>
       </c>
       <c r="S75" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="T75">
         <v>0</v>
@@ -9797,27 +9785,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>8300</v>
+        <v>8285</v>
       </c>
       <c r="B76">
         <v>53</v>
       </c>
       <c r="C76" s="1">
-        <v>44487.348981481482</v>
+        <v>44497.397013888891</v>
       </c>
       <c r="D76" s="1">
-        <v>44487.223981481482</v>
+        <v>44497.272013888891</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="F76" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="H76" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I76" t="s">
         <v>26</v>
@@ -9826,19 +9814,19 @@
         <v>26</v>
       </c>
       <c r="L76" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="O76" s="1">
-        <v>44706.377002314817</v>
+        <v>44509.595057870371</v>
       </c>
       <c r="P76" s="1">
-        <v>44706.252002314817</v>
+        <v>44509.470057870371</v>
       </c>
       <c r="R76">
         <v>0</v>
       </c>
       <c r="S76" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="T76">
         <v>0</v>
@@ -9850,48 +9838,48 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>8283</v>
+        <v>2935</v>
       </c>
       <c r="B77">
         <v>53</v>
       </c>
       <c r="C77" s="1">
-        <v>44493.394270833334</v>
+        <v>44507.268738425926</v>
       </c>
       <c r="D77" s="1">
-        <v>44493.269270833334</v>
+        <v>44507.143738425926</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="F77" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="H77" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I77" t="s">
         <v>26</v>
       </c>
       <c r="J77" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="L77" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="O77" s="1">
-        <v>44501.430405092593</v>
+        <v>44509.52239583333</v>
       </c>
       <c r="P77" s="1">
-        <v>44501.305405092593</v>
+        <v>44509.39739583333</v>
       </c>
       <c r="R77">
         <v>0</v>
       </c>
       <c r="S77" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="T77">
         <v>0</v>
@@ -9903,27 +9891,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>8285</v>
+        <v>8493</v>
       </c>
       <c r="B78">
         <v>53</v>
       </c>
       <c r="C78" s="1">
-        <v>44497.397013888891</v>
+        <v>44523.440011574072</v>
       </c>
       <c r="D78" s="1">
-        <v>44497.272013888891</v>
+        <v>44523.315011574072</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="F78" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="H78" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I78" t="s">
         <v>26</v>
@@ -9932,19 +9920,19 @@
         <v>26</v>
       </c>
       <c r="L78" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="O78" s="1">
-        <v>44509.595057870371</v>
+        <v>44523.469004629631</v>
       </c>
       <c r="P78" s="1">
-        <v>44509.470057870371</v>
+        <v>44523.344004629631</v>
       </c>
       <c r="R78">
         <v>0</v>
       </c>
       <c r="S78" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="T78">
         <v>0</v>
@@ -9956,48 +9944,48 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>2935</v>
+        <v>8538</v>
       </c>
       <c r="B79">
         <v>53</v>
       </c>
       <c r="C79" s="1">
-        <v>44507.268738425926</v>
+        <v>44529.62572916667</v>
       </c>
       <c r="D79" s="1">
-        <v>44507.143738425926</v>
+        <v>44529.50072916667</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="F79" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="H79" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I79" t="s">
         <v>26</v>
       </c>
       <c r="J79" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="L79" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="O79" s="1">
-        <v>44509.52239583333</v>
+        <v>44530.414212962962</v>
       </c>
       <c r="P79" s="1">
-        <v>44509.39739583333</v>
+        <v>44530.289212962962</v>
       </c>
       <c r="R79">
         <v>0</v>
       </c>
       <c r="S79" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="T79">
         <v>0</v>
@@ -10009,27 +9997,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>8493</v>
+        <v>8555</v>
       </c>
       <c r="B80">
         <v>53</v>
       </c>
       <c r="C80" s="1">
-        <v>44523.440011574072</v>
+        <v>44530.63040509259</v>
       </c>
       <c r="D80" s="1">
-        <v>44523.315011574072</v>
+        <v>44530.50540509259</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="F80" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="H80" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I80" t="s">
         <v>26</v>
@@ -10038,19 +10026,19 @@
         <v>26</v>
       </c>
       <c r="L80" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="O80" s="1">
-        <v>44523.469004629631</v>
+        <v>44530.63040509259</v>
       </c>
       <c r="P80" s="1">
-        <v>44523.344004629631</v>
+        <v>44530.50540509259</v>
       </c>
       <c r="R80">
         <v>0</v>
       </c>
       <c r="S80" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="T80">
         <v>0</v>
@@ -10062,27 +10050,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>8538</v>
+        <v>8558</v>
       </c>
       <c r="B81">
         <v>53</v>
       </c>
       <c r="C81" s="1">
-        <v>44529.62572916667</v>
+        <v>44531.668576388889</v>
       </c>
       <c r="D81" s="1">
-        <v>44529.50072916667</v>
+        <v>44531.543576388889</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="F81" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="H81" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I81" t="s">
         <v>26</v>
@@ -10091,19 +10079,19 @@
         <v>26</v>
       </c>
       <c r="L81" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="O81" s="1">
-        <v>44530.414212962962</v>
+        <v>44538.398194444446</v>
       </c>
       <c r="P81" s="1">
-        <v>44530.289212962962</v>
+        <v>44538.273194444446</v>
       </c>
       <c r="R81">
         <v>0</v>
       </c>
       <c r="S81" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="T81">
         <v>0</v>
@@ -10115,27 +10103,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>8555</v>
+        <v>8671</v>
       </c>
       <c r="B82">
         <v>53</v>
       </c>
       <c r="C82" s="1">
-        <v>44530.63040509259</v>
+        <v>44538.390462962961</v>
       </c>
       <c r="D82" s="1">
-        <v>44530.50540509259</v>
+        <v>44538.265462962961</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="F82" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="H82" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I82" t="s">
         <v>26</v>
@@ -10144,19 +10132,19 @@
         <v>26</v>
       </c>
       <c r="L82" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="O82" s="1">
-        <v>44530.63040509259</v>
+        <v>44538.396597222221</v>
       </c>
       <c r="P82" s="1">
-        <v>44530.50540509259</v>
+        <v>44538.271597222221</v>
       </c>
       <c r="R82">
         <v>0</v>
       </c>
       <c r="S82" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="T82">
         <v>0</v>
@@ -10168,27 +10156,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>8558</v>
+        <v>8831</v>
       </c>
       <c r="B83">
         <v>53</v>
       </c>
       <c r="C83" s="1">
-        <v>44531.668576388889</v>
+        <v>44545.452384259261</v>
       </c>
       <c r="D83" s="1">
-        <v>44531.543576388889</v>
+        <v>44545.327384259261</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="F83" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="H83" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I83" t="s">
         <v>26</v>
@@ -10197,19 +10185,19 @@
         <v>26</v>
       </c>
       <c r="L83" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="O83" s="1">
-        <v>44538.398194444446</v>
+        <v>44545.452685185184</v>
       </c>
       <c r="P83" s="1">
-        <v>44538.273194444446</v>
+        <v>44545.327685185184</v>
       </c>
       <c r="R83">
         <v>0</v>
       </c>
       <c r="S83" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="T83">
         <v>0</v>
@@ -10221,27 +10209,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>8671</v>
+        <v>8878</v>
       </c>
       <c r="B84">
         <v>53</v>
       </c>
       <c r="C84" s="1">
-        <v>44538.390462962961</v>
+        <v>44546.472581018519</v>
       </c>
       <c r="D84" s="1">
-        <v>44538.265462962961</v>
+        <v>44546.347581018519</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="F84" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="H84" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I84" t="s">
         <v>26</v>
@@ -10250,19 +10238,19 @@
         <v>26</v>
       </c>
       <c r="L84" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="O84" s="1">
-        <v>44538.396597222221</v>
+        <v>44565.354120370372</v>
       </c>
       <c r="P84" s="1">
-        <v>44538.271597222221</v>
+        <v>44565.229120370372</v>
       </c>
       <c r="R84">
         <v>0</v>
       </c>
       <c r="S84" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="T84">
         <v>0</v>
@@ -10274,27 +10262,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>8831</v>
+        <v>8880</v>
       </c>
       <c r="B85">
         <v>53</v>
       </c>
       <c r="C85" s="1">
-        <v>44545.452384259261</v>
+        <v>44550.347581018519</v>
       </c>
       <c r="D85" s="1">
-        <v>44545.327384259261</v>
+        <v>44550.222581018519</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="F85" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="H85" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I85" t="s">
         <v>26</v>
@@ -10303,19 +10291,19 @@
         <v>26</v>
       </c>
       <c r="L85" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="O85" s="1">
-        <v>44545.452685185184</v>
+        <v>44705.694502314815</v>
       </c>
       <c r="P85" s="1">
-        <v>44545.327685185184</v>
+        <v>44705.569502314815</v>
       </c>
       <c r="R85">
         <v>0</v>
       </c>
       <c r="S85" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="T85">
         <v>0</v>
@@ -10327,27 +10315,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>8878</v>
+        <v>8883</v>
       </c>
       <c r="B86">
         <v>53</v>
       </c>
       <c r="C86" s="1">
-        <v>44546.472581018519</v>
+        <v>44550.393067129633</v>
       </c>
       <c r="D86" s="1">
-        <v>44546.347581018519</v>
+        <v>44550.268067129633</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="F86" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="H86" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I86" t="s">
         <v>26</v>
@@ -10356,19 +10344,19 @@
         <v>26</v>
       </c>
       <c r="L86" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="O86" s="1">
-        <v>44565.354120370372</v>
+        <v>44550.425208333334</v>
       </c>
       <c r="P86" s="1">
-        <v>44565.229120370372</v>
+        <v>44550.300208333334</v>
       </c>
       <c r="R86">
         <v>0</v>
       </c>
       <c r="S86" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="T86">
         <v>0</v>
@@ -10380,27 +10368,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>8880</v>
+        <v>8889</v>
       </c>
       <c r="B87">
         <v>53</v>
       </c>
       <c r="C87" s="1">
-        <v>44550.347581018519</v>
+        <v>44551.388541666667</v>
       </c>
       <c r="D87" s="1">
-        <v>44550.222581018519</v>
+        <v>44551.263541666667</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="F87" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="H87" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I87" t="s">
         <v>26</v>
@@ -10409,19 +10397,19 @@
         <v>26</v>
       </c>
       <c r="L87" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="O87" s="1">
-        <v>44705.694502314815</v>
+        <v>44551.388796296298</v>
       </c>
       <c r="P87" s="1">
-        <v>44705.569502314815</v>
+        <v>44551.263796296298</v>
       </c>
       <c r="R87">
         <v>0</v>
       </c>
       <c r="S87" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="T87">
         <v>0</v>
@@ -10433,27 +10421,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>8883</v>
+        <v>8906</v>
       </c>
       <c r="B88">
         <v>53</v>
       </c>
       <c r="C88" s="1">
-        <v>44550.393067129633</v>
+        <v>44564.507199074076</v>
       </c>
       <c r="D88" s="1">
-        <v>44550.268067129633</v>
+        <v>44564.382199074076</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="F88" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="H88" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I88" t="s">
         <v>26</v>
@@ -10462,19 +10450,19 @@
         <v>26</v>
       </c>
       <c r="L88" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="O88" s="1">
-        <v>44550.425208333334</v>
+        <v>44705.674953703703</v>
       </c>
       <c r="P88" s="1">
-        <v>44550.300208333334</v>
+        <v>44705.549953703703</v>
       </c>
       <c r="R88">
         <v>0</v>
       </c>
       <c r="S88" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="T88">
         <v>0</v>
@@ -10486,27 +10474,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>8889</v>
+        <v>8912</v>
       </c>
       <c r="B89">
         <v>53</v>
       </c>
       <c r="C89" s="1">
-        <v>44551.388541666667</v>
+        <v>44564.513749999998</v>
       </c>
       <c r="D89" s="1">
-        <v>44551.263541666667</v>
+        <v>44564.388749999998</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="F89" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="H89" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I89" t="s">
         <v>26</v>
@@ -10515,19 +10503,19 @@
         <v>26</v>
       </c>
       <c r="L89" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="O89" s="1">
-        <v>44551.388796296298</v>
+        <v>44581.42832175926</v>
       </c>
       <c r="P89" s="1">
-        <v>44551.263796296298</v>
+        <v>44581.30332175926</v>
       </c>
       <c r="R89">
         <v>0</v>
       </c>
       <c r="S89" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="T89">
         <v>0</v>
@@ -10539,27 +10527,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>8906</v>
+        <v>9566</v>
       </c>
       <c r="B90">
         <v>53</v>
       </c>
       <c r="C90" s="1">
-        <v>44564.507199074076</v>
+        <v>44647.811377314814</v>
       </c>
       <c r="D90" s="1">
-        <v>44564.382199074076</v>
+        <v>44647.686377314814</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="F90" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="H90" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I90" t="s">
         <v>26</v>
@@ -10568,19 +10556,19 @@
         <v>26</v>
       </c>
       <c r="L90" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="O90" s="1">
-        <v>44705.674953703703</v>
+        <v>44647.811377314814</v>
       </c>
       <c r="P90" s="1">
-        <v>44705.549953703703</v>
+        <v>44647.686377314814</v>
       </c>
       <c r="R90">
         <v>0</v>
       </c>
       <c r="S90" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="T90">
         <v>0</v>
@@ -10592,27 +10580,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>8912</v>
+        <v>9569</v>
       </c>
       <c r="B91">
         <v>53</v>
       </c>
       <c r="C91" s="1">
-        <v>44564.513749999998</v>
+        <v>44648.487546296295</v>
       </c>
       <c r="D91" s="1">
-        <v>44564.388749999998</v>
+        <v>44648.362546296295</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="F91" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="H91" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I91" t="s">
         <v>26</v>
@@ -10621,19 +10609,19 @@
         <v>26</v>
       </c>
       <c r="L91" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="O91" s="1">
-        <v>44581.42832175926</v>
+        <v>44648.487546296295</v>
       </c>
       <c r="P91" s="1">
-        <v>44581.30332175926</v>
+        <v>44648.362546296295</v>
       </c>
       <c r="R91">
         <v>0</v>
       </c>
       <c r="S91" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="T91">
         <v>0</v>
@@ -10645,27 +10633,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>9566</v>
+        <v>9596</v>
       </c>
       <c r="B92">
         <v>53</v>
       </c>
       <c r="C92" s="1">
-        <v>44647.811377314814</v>
+        <v>44651.731979166667</v>
       </c>
       <c r="D92" s="1">
-        <v>44647.686377314814</v>
+        <v>44651.606979166667</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="F92" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="H92" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I92" t="s">
         <v>26</v>
@@ -10674,19 +10662,19 @@
         <v>26</v>
       </c>
       <c r="L92" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="O92" s="1">
-        <v>44647.811377314814</v>
+        <v>44705.664456018516</v>
       </c>
       <c r="P92" s="1">
-        <v>44647.686377314814</v>
+        <v>44705.539456018516</v>
       </c>
       <c r="R92">
         <v>0</v>
       </c>
       <c r="S92" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="T92">
         <v>0</v>
@@ -10698,27 +10686,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>9569</v>
+        <v>9734</v>
       </c>
       <c r="B93">
         <v>53</v>
       </c>
       <c r="C93" s="1">
-        <v>44648.487546296295</v>
+        <v>44690.699050925927</v>
       </c>
       <c r="D93" s="1">
-        <v>44648.362546296295</v>
+        <v>44690.574050925927</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="F93" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="H93" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I93" t="s">
         <v>26</v>
@@ -10727,19 +10715,22 @@
         <v>26</v>
       </c>
       <c r="L93" t="s">
-        <v>402</v>
+        <v>404</v>
+      </c>
+      <c r="N93" s="2" t="s">
+        <v>258</v>
       </c>
       <c r="O93" s="1">
-        <v>44648.487546296295</v>
+        <v>44697.556712962964</v>
       </c>
       <c r="P93" s="1">
-        <v>44648.362546296295</v>
+        <v>44697.431712962964</v>
       </c>
       <c r="R93">
         <v>0</v>
       </c>
       <c r="S93" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="T93">
         <v>0</v>
@@ -10751,27 +10742,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>9596</v>
+        <v>9743</v>
       </c>
       <c r="B94">
         <v>53</v>
       </c>
       <c r="C94" s="1">
-        <v>44651.731979166667</v>
+        <v>44692.480914351851</v>
       </c>
       <c r="D94" s="1">
-        <v>44651.606979166667</v>
+        <v>44692.355914351851</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="F94" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="H94" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I94" t="s">
         <v>26</v>
@@ -10780,19 +10771,19 @@
         <v>26</v>
       </c>
       <c r="L94" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="O94" s="1">
-        <v>44705.664456018516</v>
+        <v>44697.425196759257</v>
       </c>
       <c r="P94" s="1">
-        <v>44705.539456018516</v>
+        <v>44697.300196759257</v>
       </c>
       <c r="R94">
         <v>0</v>
       </c>
       <c r="S94" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="T94">
         <v>0</v>
@@ -10804,27 +10795,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>9734</v>
+        <v>10101</v>
       </c>
       <c r="B95">
         <v>53</v>
       </c>
       <c r="C95" s="1">
-        <v>44690.699050925927</v>
+        <v>44729.387615740743</v>
       </c>
       <c r="D95" s="1">
-        <v>44690.574050925927</v>
+        <v>44729.262615740743</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="F95" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="H95" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I95" t="s">
         <v>26</v>
@@ -10833,22 +10824,19 @@
         <v>26</v>
       </c>
       <c r="L95" t="s">
-        <v>410</v>
-      </c>
-      <c r="N95" s="2" t="s">
-        <v>264</v>
+        <v>412</v>
       </c>
       <c r="O95" s="1">
-        <v>44697.556712962964</v>
+        <v>44729.400277777779</v>
       </c>
       <c r="P95" s="1">
-        <v>44697.431712962964</v>
+        <v>44729.275277777779</v>
       </c>
       <c r="R95">
         <v>0</v>
       </c>
       <c r="S95" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="T95">
         <v>0</v>
@@ -10860,27 +10848,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>9743</v>
+        <v>10104</v>
       </c>
       <c r="B96">
         <v>53</v>
       </c>
       <c r="C96" s="1">
-        <v>44692.480914351851</v>
+        <v>44729.389016203706</v>
       </c>
       <c r="D96" s="1">
-        <v>44692.355914351851</v>
+        <v>44729.264016203706</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="F96" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="H96" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I96" t="s">
         <v>26</v>
@@ -10889,19 +10877,19 @@
         <v>26</v>
       </c>
       <c r="L96" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="O96" s="1">
-        <v>44697.425196759257</v>
+        <v>44729.392789351848</v>
       </c>
       <c r="P96" s="1">
-        <v>44697.300196759257</v>
+        <v>44729.267789351848</v>
       </c>
       <c r="R96">
         <v>0</v>
       </c>
       <c r="S96" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="T96">
         <v>0</v>
@@ -10913,27 +10901,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>10101</v>
+        <v>10390</v>
       </c>
       <c r="B97">
         <v>53</v>
       </c>
       <c r="C97" s="1">
-        <v>44729.387615740743</v>
+        <v>44756.357754629629</v>
       </c>
       <c r="D97" s="1">
-        <v>44729.262615740743</v>
+        <v>44756.232754629629</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="F97" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="H97" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I97" t="s">
         <v>26</v>
@@ -10942,19 +10930,19 @@
         <v>26</v>
       </c>
       <c r="L97" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="O97" s="1">
-        <v>44729.400277777779</v>
+        <v>44756.363194444442</v>
       </c>
       <c r="P97" s="1">
-        <v>44729.275277777779</v>
+        <v>44756.238194444442</v>
       </c>
       <c r="R97">
         <v>0</v>
       </c>
       <c r="S97" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="T97">
         <v>0</v>
@@ -10966,27 +10954,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>10104</v>
+        <v>10397</v>
       </c>
       <c r="B98">
         <v>53</v>
       </c>
       <c r="C98" s="1">
-        <v>44729.389016203706</v>
+        <v>44756.43378472222</v>
       </c>
       <c r="D98" s="1">
-        <v>44729.264016203706</v>
+        <v>44756.30878472222</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="F98" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="H98" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I98" t="s">
         <v>26</v>
@@ -10995,19 +10983,19 @@
         <v>26</v>
       </c>
       <c r="L98" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="O98" s="1">
-        <v>44729.392789351848</v>
+        <v>44756.434594907405</v>
       </c>
       <c r="P98" s="1">
-        <v>44729.267789351848</v>
+        <v>44756.309594907405</v>
       </c>
       <c r="R98">
         <v>0</v>
       </c>
       <c r="S98" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="T98">
         <v>0</v>
@@ -11019,27 +11007,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>10390</v>
+        <v>11724</v>
       </c>
       <c r="B99">
         <v>53</v>
       </c>
       <c r="C99" s="1">
-        <v>44756.357754629629</v>
+        <v>44873.419444444444</v>
       </c>
       <c r="D99" s="1">
-        <v>44756.232754629629</v>
+        <v>44873.294444444444</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="F99" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="H99" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I99" t="s">
         <v>26</v>
@@ -11048,19 +11036,19 @@
         <v>26</v>
       </c>
       <c r="L99" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="O99" s="1">
-        <v>44756.363194444442</v>
+        <v>44874.409386574072</v>
       </c>
       <c r="P99" s="1">
-        <v>44756.238194444442</v>
+        <v>44874.284386574072</v>
       </c>
       <c r="R99">
         <v>0</v>
       </c>
       <c r="S99" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="T99">
         <v>0</v>
@@ -11072,27 +11060,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>10397</v>
+        <v>11727</v>
       </c>
       <c r="B100">
         <v>53</v>
       </c>
       <c r="C100" s="1">
-        <v>44756.43378472222</v>
+        <v>44873.421932870369</v>
       </c>
       <c r="D100" s="1">
-        <v>44756.30878472222</v>
+        <v>44873.296932870369</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="F100" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="H100" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I100" t="s">
         <v>26</v>
@@ -11101,19 +11089,19 @@
         <v>26</v>
       </c>
       <c r="L100" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="O100" s="1">
-        <v>44756.434594907405</v>
+        <v>44874.401805555557</v>
       </c>
       <c r="P100" s="1">
-        <v>44756.309594907405</v>
+        <v>44874.276805555557</v>
       </c>
       <c r="R100">
         <v>0</v>
       </c>
       <c r="S100" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="T100">
         <v>0</v>
@@ -11125,27 +11113,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A101">
-        <v>11724</v>
+        <v>11793</v>
       </c>
       <c r="B101">
         <v>53</v>
       </c>
       <c r="C101" s="1">
-        <v>44873.419444444444</v>
+        <v>44874.418182870373</v>
       </c>
       <c r="D101" s="1">
-        <v>44873.294444444444</v>
+        <v>44874.293182870373</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="F101" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="H101" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I101" t="s">
         <v>26</v>
@@ -11154,19 +11142,19 @@
         <v>26</v>
       </c>
       <c r="L101" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="O101" s="1">
-        <v>44874.409386574072</v>
+        <v>44874.418182870373</v>
       </c>
       <c r="P101" s="1">
-        <v>44874.284386574072</v>
+        <v>44874.293182870373</v>
       </c>
       <c r="R101">
         <v>0</v>
       </c>
       <c r="S101" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="T101">
         <v>0</v>
@@ -11178,27 +11166,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A102">
-        <v>11727</v>
+        <v>12295</v>
       </c>
       <c r="B102">
         <v>53</v>
       </c>
       <c r="C102" s="1">
-        <v>44873.421932870369</v>
+        <v>44991.695509259262</v>
       </c>
       <c r="D102" s="1">
-        <v>44873.296932870369</v>
+        <v>44991.570509259262</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="F102" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="H102" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I102" t="s">
         <v>26</v>
@@ -11207,19 +11195,19 @@
         <v>26</v>
       </c>
       <c r="L102" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="O102" s="1">
-        <v>44874.401805555557</v>
+        <v>44998.695706018516</v>
       </c>
       <c r="P102" s="1">
-        <v>44874.276805555557</v>
+        <v>44998.570706018516</v>
       </c>
       <c r="R102">
         <v>0</v>
       </c>
       <c r="S102" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="T102">
         <v>0</v>
@@ -11231,27 +11219,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>11793</v>
+        <v>12293</v>
       </c>
       <c r="B103">
         <v>53</v>
       </c>
       <c r="C103" s="1">
-        <v>44874.418182870373</v>
+        <v>44998.693807870368</v>
       </c>
       <c r="D103" s="1">
-        <v>44874.293182870373</v>
+        <v>44998.568807870368</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="F103" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="H103" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I103" t="s">
         <v>26</v>
@@ -11260,19 +11248,19 @@
         <v>26</v>
       </c>
       <c r="L103" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="O103" s="1">
-        <v>44874.418182870373</v>
+        <v>44998.693807870368</v>
       </c>
       <c r="P103" s="1">
-        <v>44874.293182870373</v>
+        <v>44998.568807870368</v>
       </c>
       <c r="R103">
         <v>0</v>
       </c>
       <c r="S103" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="T103">
         <v>0</v>
@@ -11284,27 +11272,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>12295</v>
+        <v>13227</v>
       </c>
       <c r="B104">
         <v>53</v>
       </c>
       <c r="C104" s="1">
-        <v>44991.695509259262</v>
+        <v>45131.683935185189</v>
       </c>
       <c r="D104" s="1">
-        <v>44991.570509259262</v>
+        <v>45131.558935185189</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F104" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="H104" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I104" t="s">
         <v>26</v>
@@ -11313,19 +11301,19 @@
         <v>26</v>
       </c>
       <c r="L104" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="O104" s="1">
-        <v>44998.695706018516</v>
+        <v>45131.683935185189</v>
       </c>
       <c r="P104" s="1">
-        <v>44998.570706018516</v>
+        <v>45131.558935185189</v>
       </c>
       <c r="R104">
         <v>0</v>
       </c>
       <c r="S104" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="T104">
         <v>0</v>
@@ -11337,113 +11325,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A105">
-        <v>12293</v>
-      </c>
-      <c r="B105">
-        <v>53</v>
-      </c>
-      <c r="C105" s="1">
-        <v>44998.693807870368</v>
-      </c>
-      <c r="D105" s="1">
-        <v>44998.568807870368</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="F105" t="s">
-        <v>449</v>
-      </c>
-      <c r="H105" t="s">
-        <v>42</v>
-      </c>
-      <c r="I105" t="s">
-        <v>26</v>
-      </c>
-      <c r="J105" t="s">
-        <v>26</v>
-      </c>
-      <c r="L105" t="s">
-        <v>450</v>
-      </c>
-      <c r="O105" s="1">
-        <v>44998.693807870368</v>
-      </c>
-      <c r="P105" s="1">
-        <v>44998.568807870368</v>
-      </c>
-      <c r="R105">
-        <v>0</v>
-      </c>
-      <c r="S105" t="s">
-        <v>451</v>
-      </c>
-      <c r="T105">
-        <v>0</v>
-      </c>
-      <c r="U105" t="s">
-        <v>28</v>
-      </c>
-      <c r="W105">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A106">
-        <v>13227</v>
-      </c>
-      <c r="B106">
-        <v>53</v>
-      </c>
-      <c r="C106" s="1">
-        <v>45131.683935185189</v>
-      </c>
-      <c r="D106" s="1">
-        <v>45131.558935185189</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="F106" t="s">
-        <v>453</v>
-      </c>
-      <c r="H106" t="s">
-        <v>42</v>
-      </c>
-      <c r="I106" t="s">
-        <v>26</v>
-      </c>
-      <c r="J106" t="s">
-        <v>26</v>
-      </c>
-      <c r="L106" t="s">
-        <v>454</v>
-      </c>
-      <c r="O106" s="1">
-        <v>45131.683935185189</v>
-      </c>
-      <c r="P106" s="1">
-        <v>45131.558935185189</v>
-      </c>
-      <c r="R106">
-        <v>0</v>
-      </c>
-      <c r="S106" t="s">
-        <v>455</v>
-      </c>
-      <c r="T106">
-        <v>0</v>
-      </c>
-      <c r="U106" t="s">
-        <v>28</v>
-      </c>
-      <c r="W106">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
+  <autoFilter ref="A1:W104"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>